--- a/diaries/diary-Yue Zhang.xlsx
+++ b/diaries/diary-Yue Zhang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yorkson/Dropbox/MSWE-Q2/SWE-265P/W2020/diaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7E0A03-D668-D14E-B47D-45A96CB2D82A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23BA422-027D-E54D-ADA7-92D5F36575EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -302,6 +302,85 @@
   </si>
   <si>
     <t>So So.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:00-7:40 PM</t>
+  </si>
+  <si>
+    <t>Good</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-11:30 PM</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worked on the homework</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned about some new software design patterns.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Happy</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Found some desgin patterns used in the projects</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned about some design patterns and some KEPs. Learned how desgin patterns help us to read code.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>The design patterns of codes contains a lot of informations which could help us to understand the project.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned about testing and some KEPs. Learned how test cases help us to read code.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learned about miscellaneous apects and more KEPs.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reading the testing of codes also contains a lot of informations which could help us to understand the project.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>The course teaches us a lot of things about how to read a project and how to contribute codes to a project</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00-10:00PM</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worked on the last homework</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>We decided to choose two issues from the github and sent it to Kaj.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>The issues are difficult to understand. But we finally found two acceptable issues to fix.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finished the last homework</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>We fixed the second issue, looked through all the test cases and add some new test cases.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>We should learn how to understand a project quickly and then we could add some new features or fix some bugs from our understanding.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -821,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="101" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1236,59 +1315,143 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" ht="16">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" ht="16">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" ht="16">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" ht="16">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" ht="16">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
+    <row r="23" spans="1:7" ht="51">
+      <c r="A23" s="12">
+        <v>43888</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="34">
+      <c r="A24" s="12">
+        <v>43892</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="68">
+      <c r="A25" s="12">
+        <v>43895</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="51">
+      <c r="A26" s="12">
+        <v>43902</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="51">
+      <c r="A27" s="12">
+        <v>43903</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="68">
+      <c r="A28" s="12">
+        <v>43906</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="16">
       <c r="A29" s="7"/>
